--- a/intermediate/test/household-count-by-re-hhsize.xlsx
+++ b/intermediate/test/household-count-by-re-hhsize.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,11 +460,6 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>HH_SIZE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
           <t>ID</t>
         </is>
       </c>
@@ -539,12 +534,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -618,12 +608,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U3">
+      <c r="T3">
         <v>2</v>
       </c>
     </row>
@@ -697,12 +682,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U4">
+      <c r="T4">
         <v>3</v>
       </c>
     </row>
@@ -776,12 +756,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U5">
+      <c r="T5">
         <v>4</v>
       </c>
     </row>
@@ -855,12 +830,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U6">
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
@@ -934,12 +904,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U7">
+      <c r="T7">
         <v>6</v>
       </c>
     </row>
@@ -1013,12 +978,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U8">
+      <c r="T8">
         <v>7</v>
       </c>
     </row>
@@ -1092,12 +1052,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U9">
+      <c r="T9">
         <v>8</v>
       </c>
     </row>
@@ -1171,12 +1126,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U10">
+      <c r="T10">
         <v>9</v>
       </c>
     </row>
@@ -1250,12 +1200,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U11">
+      <c r="T11">
         <v>10</v>
       </c>
     </row>
@@ -1329,12 +1274,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U12">
+      <c r="T12">
         <v>11</v>
       </c>
     </row>
@@ -1408,12 +1348,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U13">
+      <c r="T13">
         <v>12</v>
       </c>
     </row>
@@ -1487,12 +1422,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U14">
+      <c r="T14">
         <v>13</v>
       </c>
     </row>
@@ -1566,12 +1496,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U15">
+      <c r="T15">
         <v>1</v>
       </c>
     </row>
@@ -1645,12 +1570,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U16">
+      <c r="T16">
         <v>2</v>
       </c>
     </row>
@@ -1724,12 +1644,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U17">
+      <c r="T17">
         <v>3</v>
       </c>
     </row>
@@ -1803,12 +1718,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U18">
+      <c r="T18">
         <v>4</v>
       </c>
     </row>
@@ -1882,12 +1792,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U19">
+      <c r="T19">
         <v>5</v>
       </c>
     </row>
@@ -1961,12 +1866,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U20">
+      <c r="T20">
         <v>6</v>
       </c>
     </row>
@@ -2040,12 +1940,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U21">
+      <c r="T21">
         <v>7</v>
       </c>
     </row>
@@ -2119,12 +2014,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U22">
+      <c r="T22">
         <v>8</v>
       </c>
     </row>
@@ -2198,12 +2088,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U23">
+      <c r="T23">
         <v>9</v>
       </c>
     </row>
@@ -2277,12 +2162,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U24">
+      <c r="T24">
         <v>10</v>
       </c>
     </row>
@@ -2356,12 +2236,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U25">
+      <c r="T25">
         <v>11</v>
       </c>
     </row>
@@ -2435,12 +2310,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U26">
+      <c r="T26">
         <v>12</v>
       </c>
     </row>
@@ -2514,12 +2384,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U27">
+      <c r="T27">
         <v>13</v>
       </c>
     </row>
@@ -2593,12 +2458,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U28">
+      <c r="T28">
         <v>1</v>
       </c>
     </row>
@@ -2672,12 +2532,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U29">
+      <c r="T29">
         <v>2</v>
       </c>
     </row>
@@ -2751,12 +2606,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U30">
+      <c r="T30">
         <v>3</v>
       </c>
     </row>
@@ -2830,12 +2680,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U31">
+      <c r="T31">
         <v>4</v>
       </c>
     </row>
@@ -2909,12 +2754,7 @@
           <t>unreliable</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U32">
+      <c r="T32">
         <v>5</v>
       </c>
     </row>
@@ -2988,12 +2828,7 @@
           <t>weak</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U33">
+      <c r="T33">
         <v>6</v>
       </c>
     </row>
@@ -3067,12 +2902,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U34">
+      <c r="T34">
         <v>7</v>
       </c>
     </row>
@@ -3146,12 +2976,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U35">
+      <c r="T35">
         <v>8</v>
       </c>
     </row>
@@ -3225,12 +3050,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U36">
+      <c r="T36">
         <v>9</v>
       </c>
     </row>
@@ -3304,12 +3124,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U37">
+      <c r="T37">
         <v>10</v>
       </c>
     </row>
@@ -3383,12 +3198,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U38">
+      <c r="T38">
         <v>11</v>
       </c>
     </row>
@@ -3462,12 +3272,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U39">
+      <c r="T39">
         <v>12</v>
       </c>
     </row>
@@ -3541,12 +3346,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U40">
+      <c r="T40">
         <v>13</v>
       </c>
     </row>
@@ -3620,12 +3420,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U41">
+      <c r="T41">
         <v>1</v>
       </c>
     </row>
@@ -3699,12 +3494,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U42">
+      <c r="T42">
         <v>2</v>
       </c>
     </row>
@@ -3778,12 +3568,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U43">
+      <c r="T43">
         <v>3</v>
       </c>
     </row>
@@ -3857,12 +3642,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U44">
+      <c r="T44">
         <v>4</v>
       </c>
     </row>
@@ -3936,12 +3716,7 @@
           <t>weak</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U45">
+      <c r="T45">
         <v>5</v>
       </c>
     </row>
@@ -4015,12 +3790,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U46">
+      <c r="T46">
         <v>6</v>
       </c>
     </row>
@@ -4094,12 +3864,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U47">
+      <c r="T47">
         <v>7</v>
       </c>
     </row>
@@ -4173,12 +3938,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U48">
+      <c r="T48">
         <v>8</v>
       </c>
     </row>
@@ -4252,12 +4012,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U49">
+      <c r="T49">
         <v>9</v>
       </c>
     </row>
@@ -4331,12 +4086,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U50">
+      <c r="T50">
         <v>10</v>
       </c>
     </row>
@@ -4410,12 +4160,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U51">
+      <c r="T51">
         <v>11</v>
       </c>
     </row>
@@ -4489,12 +4234,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U52">
+      <c r="T52">
         <v>12</v>
       </c>
     </row>
@@ -4568,12 +4308,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U53">
+      <c r="T53">
         <v>13</v>
       </c>
     </row>
@@ -4647,12 +4382,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U54">
+      <c r="T54">
         <v>1</v>
       </c>
     </row>
@@ -4726,12 +4456,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U55">
+      <c r="T55">
         <v>2</v>
       </c>
     </row>
@@ -4805,12 +4530,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U56">
+      <c r="T56">
         <v>3</v>
       </c>
     </row>
@@ -4884,12 +4604,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U57">
+      <c r="T57">
         <v>4</v>
       </c>
     </row>
@@ -4963,12 +4678,7 @@
           <t>unreliable</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U58">
+      <c r="T58">
         <v>5</v>
       </c>
     </row>
@@ -5042,12 +4752,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U59">
+      <c r="T59">
         <v>6</v>
       </c>
     </row>
@@ -5121,12 +4826,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U60">
+      <c r="T60">
         <v>7</v>
       </c>
     </row>
@@ -5200,12 +4900,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U61">
+      <c r="T61">
         <v>8</v>
       </c>
     </row>
@@ -5279,12 +4974,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U62">
+      <c r="T62">
         <v>9</v>
       </c>
     </row>
@@ -5358,12 +5048,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U63">
+      <c r="T63">
         <v>10</v>
       </c>
     </row>
@@ -5437,12 +5122,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U64">
+      <c r="T64">
         <v>11</v>
       </c>
     </row>
@@ -5516,12 +5196,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U65">
+      <c r="T65">
         <v>12</v>
       </c>
     </row>
@@ -5595,12 +5270,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U66">
+      <c r="T66">
         <v>13</v>
       </c>
     </row>
@@ -5611,7 +5281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U96"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5715,11 +5385,6 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>HH_SIZE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
           <t>ID</t>
         </is>
       </c>
@@ -5794,12 +5459,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -5873,12 +5533,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U3">
+      <c r="T3">
         <v>2</v>
       </c>
     </row>
@@ -5952,12 +5607,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U4">
+      <c r="T4">
         <v>3</v>
       </c>
     </row>
@@ -6031,12 +5681,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U5">
+      <c r="T5">
         <v>4</v>
       </c>
     </row>
@@ -6093,12 +5738,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U6">
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
@@ -6155,12 +5795,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U7">
+      <c r="T7">
         <v>6</v>
       </c>
     </row>
@@ -6217,12 +5852,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U8">
+      <c r="T8">
         <v>7</v>
       </c>
     </row>
@@ -6279,12 +5909,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U9">
+      <c r="T9">
         <v>8</v>
       </c>
     </row>
@@ -6358,12 +5983,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U10">
+      <c r="T10">
         <v>9</v>
       </c>
     </row>
@@ -6437,12 +6057,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U11">
+      <c r="T11">
         <v>10</v>
       </c>
     </row>
@@ -6516,12 +6131,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U12">
+      <c r="T12">
         <v>11</v>
       </c>
     </row>
@@ -6595,12 +6205,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U13">
+      <c r="T13">
         <v>12</v>
       </c>
     </row>
@@ -6657,12 +6262,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U14">
+      <c r="T14">
         <v>13</v>
       </c>
     </row>
@@ -6719,12 +6319,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U15">
+      <c r="T15">
         <v>14</v>
       </c>
     </row>
@@ -6798,12 +6393,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U16">
+      <c r="T16">
         <v>15</v>
       </c>
     </row>
@@ -6877,12 +6467,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U17">
+      <c r="T17">
         <v>16</v>
       </c>
     </row>
@@ -6956,12 +6541,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U18">
+      <c r="T18">
         <v>17</v>
       </c>
     </row>
@@ -7035,12 +6615,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U19">
+      <c r="T19">
         <v>18</v>
       </c>
     </row>
@@ -7114,12 +6689,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U20">
+      <c r="T20">
         <v>19</v>
       </c>
     </row>
@@ -7193,12 +6763,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U21">
+      <c r="T21">
         <v>1</v>
       </c>
     </row>
@@ -7272,12 +6837,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U22">
+      <c r="T22">
         <v>2</v>
       </c>
     </row>
@@ -7351,12 +6911,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U23">
+      <c r="T23">
         <v>3</v>
       </c>
     </row>
@@ -7430,12 +6985,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U24">
+      <c r="T24">
         <v>4</v>
       </c>
     </row>
@@ -7492,12 +7042,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U25">
+      <c r="T25">
         <v>5</v>
       </c>
     </row>
@@ -7554,12 +7099,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U26">
+      <c r="T26">
         <v>6</v>
       </c>
     </row>
@@ -7616,12 +7156,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U27">
+      <c r="T27">
         <v>7</v>
       </c>
     </row>
@@ -7678,12 +7213,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U28">
+      <c r="T28">
         <v>8</v>
       </c>
     </row>
@@ -7757,12 +7287,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U29">
+      <c r="T29">
         <v>9</v>
       </c>
     </row>
@@ -7836,12 +7361,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U30">
+      <c r="T30">
         <v>10</v>
       </c>
     </row>
@@ -7915,12 +7435,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U31">
+      <c r="T31">
         <v>11</v>
       </c>
     </row>
@@ -7994,12 +7509,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U32">
+      <c r="T32">
         <v>12</v>
       </c>
     </row>
@@ -8056,12 +7566,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U33">
+      <c r="T33">
         <v>13</v>
       </c>
     </row>
@@ -8118,12 +7623,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U34">
+      <c r="T34">
         <v>14</v>
       </c>
     </row>
@@ -8197,12 +7697,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U35">
+      <c r="T35">
         <v>15</v>
       </c>
     </row>
@@ -8276,12 +7771,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U36">
+      <c r="T36">
         <v>16</v>
       </c>
     </row>
@@ -8355,12 +7845,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U37">
+      <c r="T37">
         <v>17</v>
       </c>
     </row>
@@ -8434,12 +7919,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U38">
+      <c r="T38">
         <v>18</v>
       </c>
     </row>
@@ -8513,12 +7993,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U39">
+      <c r="T39">
         <v>19</v>
       </c>
     </row>
@@ -8592,12 +8067,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U40">
+      <c r="T40">
         <v>1</v>
       </c>
     </row>
@@ -8671,12 +8141,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U41">
+      <c r="T41">
         <v>2</v>
       </c>
     </row>
@@ -8750,12 +8215,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U42">
+      <c r="T42">
         <v>3</v>
       </c>
     </row>
@@ -8829,12 +8289,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U43">
+      <c r="T43">
         <v>4</v>
       </c>
     </row>
@@ -8891,12 +8346,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U44">
+      <c r="T44">
         <v>5</v>
       </c>
     </row>
@@ -8953,12 +8403,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U45">
+      <c r="T45">
         <v>6</v>
       </c>
     </row>
@@ -9015,12 +8460,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U46">
+      <c r="T46">
         <v>7</v>
       </c>
     </row>
@@ -9077,12 +8517,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U47">
+      <c r="T47">
         <v>8</v>
       </c>
     </row>
@@ -9156,12 +8591,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U48">
+      <c r="T48">
         <v>9</v>
       </c>
     </row>
@@ -9235,12 +8665,7 @@
           <t>weak</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U49">
+      <c r="T49">
         <v>10</v>
       </c>
     </row>
@@ -9314,12 +8739,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U50">
+      <c r="T50">
         <v>11</v>
       </c>
     </row>
@@ -9393,12 +8813,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U51">
+      <c r="T51">
         <v>12</v>
       </c>
     </row>
@@ -9455,12 +8870,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U52">
+      <c r="T52">
         <v>13</v>
       </c>
     </row>
@@ -9517,12 +8927,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U53">
+      <c r="T53">
         <v>14</v>
       </c>
     </row>
@@ -9596,12 +9001,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U54">
+      <c r="T54">
         <v>15</v>
       </c>
     </row>
@@ -9675,12 +9075,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U55">
+      <c r="T55">
         <v>16</v>
       </c>
     </row>
@@ -9754,12 +9149,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U56">
+      <c r="T56">
         <v>17</v>
       </c>
     </row>
@@ -9833,12 +9223,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U57">
+      <c r="T57">
         <v>18</v>
       </c>
     </row>
@@ -9912,12 +9297,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U58">
+      <c r="T58">
         <v>19</v>
       </c>
     </row>
@@ -9991,12 +9371,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U59">
+      <c r="T59">
         <v>1</v>
       </c>
     </row>
@@ -10070,12 +9445,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U60">
+      <c r="T60">
         <v>2</v>
       </c>
     </row>
@@ -10149,12 +9519,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U61">
+      <c r="T61">
         <v>3</v>
       </c>
     </row>
@@ -10228,12 +9593,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U62">
+      <c r="T62">
         <v>4</v>
       </c>
     </row>
@@ -10290,12 +9650,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U63">
+      <c r="T63">
         <v>5</v>
       </c>
     </row>
@@ -10352,12 +9707,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U64">
+      <c r="T64">
         <v>6</v>
       </c>
     </row>
@@ -10414,12 +9764,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U65">
+      <c r="T65">
         <v>7</v>
       </c>
     </row>
@@ -10476,12 +9821,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U66">
+      <c r="T66">
         <v>8</v>
       </c>
     </row>
@@ -10555,12 +9895,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U67">
+      <c r="T67">
         <v>9</v>
       </c>
     </row>
@@ -10634,12 +9969,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U68">
+      <c r="T68">
         <v>10</v>
       </c>
     </row>
@@ -10713,12 +10043,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U69">
+      <c r="T69">
         <v>11</v>
       </c>
     </row>
@@ -10792,12 +10117,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U70">
+      <c r="T70">
         <v>12</v>
       </c>
     </row>
@@ -10854,12 +10174,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U71">
+      <c r="T71">
         <v>13</v>
       </c>
     </row>
@@ -10916,12 +10231,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U72">
+      <c r="T72">
         <v>14</v>
       </c>
     </row>
@@ -10995,12 +10305,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U73">
+      <c r="T73">
         <v>15</v>
       </c>
     </row>
@@ -11074,12 +10379,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U74">
+      <c r="T74">
         <v>16</v>
       </c>
     </row>
@@ -11153,12 +10453,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U75">
+      <c r="T75">
         <v>17</v>
       </c>
     </row>
@@ -11232,12 +10527,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U76">
+      <c r="T76">
         <v>18</v>
       </c>
     </row>
@@ -11311,12 +10601,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U77">
+      <c r="T77">
         <v>19</v>
       </c>
     </row>
@@ -11390,12 +10675,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U78">
+      <c r="T78">
         <v>1</v>
       </c>
     </row>
@@ -11469,12 +10749,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U79">
+      <c r="T79">
         <v>2</v>
       </c>
     </row>
@@ -11548,12 +10823,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U80">
+      <c r="T80">
         <v>3</v>
       </c>
     </row>
@@ -11627,12 +10897,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U81">
+      <c r="T81">
         <v>4</v>
       </c>
     </row>
@@ -11689,12 +10954,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U82">
+      <c r="T82">
         <v>5</v>
       </c>
     </row>
@@ -11751,12 +11011,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U83">
+      <c r="T83">
         <v>6</v>
       </c>
     </row>
@@ -11813,12 +11068,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U84">
+      <c r="T84">
         <v>7</v>
       </c>
     </row>
@@ -11875,12 +11125,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U85">
+      <c r="T85">
         <v>8</v>
       </c>
     </row>
@@ -11954,12 +11199,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U86">
+      <c r="T86">
         <v>9</v>
       </c>
     </row>
@@ -12033,12 +11273,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U87">
+      <c r="T87">
         <v>10</v>
       </c>
     </row>
@@ -12112,12 +11347,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U88">
+      <c r="T88">
         <v>11</v>
       </c>
     </row>
@@ -12191,12 +11421,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U89">
+      <c r="T89">
         <v>12</v>
       </c>
     </row>
@@ -12253,12 +11478,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U90">
+      <c r="T90">
         <v>13</v>
       </c>
     </row>
@@ -12315,12 +11535,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U91">
+      <c r="T91">
         <v>14</v>
       </c>
     </row>
@@ -12394,12 +11609,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U92">
+      <c r="T92">
         <v>15</v>
       </c>
     </row>
@@ -12473,12 +11683,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U93">
+      <c r="T93">
         <v>16</v>
       </c>
     </row>
@@ -12552,12 +11757,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U94">
+      <c r="T94">
         <v>17</v>
       </c>
     </row>
@@ -12631,12 +11831,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U95">
+      <c r="T95">
         <v>18</v>
       </c>
     </row>
@@ -12710,12 +11905,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U96">
+      <c r="T96">
         <v>19</v>
       </c>
     </row>
@@ -12726,7 +11916,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12830,11 +12020,6 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>HH_SIZE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
           <t>ID</t>
         </is>
       </c>
@@ -12909,12 +12094,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -12988,12 +12168,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U3">
+      <c r="T3">
         <v>2</v>
       </c>
     </row>
@@ -13067,12 +12242,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U4">
+      <c r="T4">
         <v>3</v>
       </c>
     </row>
@@ -13146,12 +12316,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U5">
+      <c r="T5">
         <v>4</v>
       </c>
     </row>
@@ -13225,12 +12390,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U6">
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
@@ -13304,12 +12464,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U7">
+      <c r="T7">
         <v>6</v>
       </c>
     </row>
@@ -13383,12 +12538,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U8">
+      <c r="T8">
         <v>7</v>
       </c>
     </row>
@@ -13462,12 +12612,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U9">
+      <c r="T9">
         <v>8</v>
       </c>
     </row>
@@ -13541,12 +12686,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U10">
+      <c r="T10">
         <v>9</v>
       </c>
     </row>
@@ -13620,12 +12760,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U11">
+      <c r="T11">
         <v>10</v>
       </c>
     </row>
@@ -13699,12 +12834,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U12">
+      <c r="T12">
         <v>11</v>
       </c>
     </row>
@@ -13778,12 +12908,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U13">
+      <c r="T13">
         <v>12</v>
       </c>
     </row>
@@ -13857,12 +12982,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U14">
+      <c r="T14">
         <v>13</v>
       </c>
     </row>
@@ -13936,12 +13056,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U15">
+      <c r="T15">
         <v>1</v>
       </c>
     </row>
@@ -14015,12 +13130,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U16">
+      <c r="T16">
         <v>2</v>
       </c>
     </row>
@@ -14094,12 +13204,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U17">
+      <c r="T17">
         <v>3</v>
       </c>
     </row>
@@ -14173,12 +13278,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U18">
+      <c r="T18">
         <v>4</v>
       </c>
     </row>
@@ -14252,12 +13352,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U19">
+      <c r="T19">
         <v>5</v>
       </c>
     </row>
@@ -14331,12 +13426,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U20">
+      <c r="T20">
         <v>6</v>
       </c>
     </row>
@@ -14410,12 +13500,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U21">
+      <c r="T21">
         <v>7</v>
       </c>
     </row>
@@ -14489,12 +13574,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U22">
+      <c r="T22">
         <v>8</v>
       </c>
     </row>
@@ -14568,12 +13648,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U23">
+      <c r="T23">
         <v>9</v>
       </c>
     </row>
@@ -14647,12 +13722,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U24">
+      <c r="T24">
         <v>10</v>
       </c>
     </row>
@@ -14726,12 +13796,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U25">
+      <c r="T25">
         <v>11</v>
       </c>
     </row>
@@ -14805,12 +13870,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U26">
+      <c r="T26">
         <v>12</v>
       </c>
     </row>
@@ -14884,12 +13944,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U27">
+      <c r="T27">
         <v>13</v>
       </c>
     </row>
@@ -14963,12 +14018,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U28">
+      <c r="T28">
         <v>1</v>
       </c>
     </row>
@@ -15042,12 +14092,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U29">
+      <c r="T29">
         <v>2</v>
       </c>
     </row>
@@ -15121,12 +14166,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U30">
+      <c r="T30">
         <v>3</v>
       </c>
     </row>
@@ -15200,12 +14240,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U31">
+      <c r="T31">
         <v>4</v>
       </c>
     </row>
@@ -15279,12 +14314,7 @@
           <t>unreliable</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U32">
+      <c r="T32">
         <v>5</v>
       </c>
     </row>
@@ -15358,12 +14388,7 @@
           <t>weak</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U33">
+      <c r="T33">
         <v>6</v>
       </c>
     </row>
@@ -15437,12 +14462,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U34">
+      <c r="T34">
         <v>7</v>
       </c>
     </row>
@@ -15516,12 +14536,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U35">
+      <c r="T35">
         <v>8</v>
       </c>
     </row>
@@ -15595,12 +14610,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U36">
+      <c r="T36">
         <v>9</v>
       </c>
     </row>
@@ -15674,12 +14684,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U37">
+      <c r="T37">
         <v>10</v>
       </c>
     </row>
@@ -15753,12 +14758,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U38">
+      <c r="T38">
         <v>11</v>
       </c>
     </row>
@@ -15832,12 +14832,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U39">
+      <c r="T39">
         <v>12</v>
       </c>
     </row>
@@ -15911,12 +14906,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U40">
+      <c r="T40">
         <v>13</v>
       </c>
     </row>
@@ -15990,12 +14980,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U41">
+      <c r="T41">
         <v>1</v>
       </c>
     </row>
@@ -16069,12 +15054,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U42">
+      <c r="T42">
         <v>2</v>
       </c>
     </row>
@@ -16148,12 +15128,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U43">
+      <c r="T43">
         <v>3</v>
       </c>
     </row>
@@ -16227,12 +15202,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U44">
+      <c r="T44">
         <v>4</v>
       </c>
     </row>
@@ -16306,12 +15276,7 @@
           <t>weak</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U45">
+      <c r="T45">
         <v>5</v>
       </c>
     </row>
@@ -16385,12 +15350,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U46">
+      <c r="T46">
         <v>6</v>
       </c>
     </row>
@@ -16464,12 +15424,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U47">
+      <c r="T47">
         <v>7</v>
       </c>
     </row>
@@ -16543,12 +15498,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U48">
+      <c r="T48">
         <v>8</v>
       </c>
     </row>
@@ -16622,12 +15572,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U49">
+      <c r="T49">
         <v>9</v>
       </c>
     </row>
@@ -16701,12 +15646,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U50">
+      <c r="T50">
         <v>10</v>
       </c>
     </row>
@@ -16780,12 +15720,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U51">
+      <c r="T51">
         <v>11</v>
       </c>
     </row>
@@ -16859,12 +15794,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U52">
+      <c r="T52">
         <v>12</v>
       </c>
     </row>
@@ -16938,12 +15868,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U53">
+      <c r="T53">
         <v>13</v>
       </c>
     </row>
@@ -17017,12 +15942,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U54">
+      <c r="T54">
         <v>1</v>
       </c>
     </row>
@@ -17096,12 +16016,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U55">
+      <c r="T55">
         <v>2</v>
       </c>
     </row>
@@ -17175,12 +16090,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U56">
+      <c r="T56">
         <v>3</v>
       </c>
     </row>
@@ -17254,12 +16164,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U57">
+      <c r="T57">
         <v>4</v>
       </c>
     </row>
@@ -17333,12 +16238,7 @@
           <t>unreliable</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U58">
+      <c r="T58">
         <v>5</v>
       </c>
     </row>
@@ -17412,12 +16312,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U59">
+      <c r="T59">
         <v>6</v>
       </c>
     </row>
@@ -17491,12 +16386,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U60">
+      <c r="T60">
         <v>7</v>
       </c>
     </row>
@@ -17570,12 +16460,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U61">
+      <c r="T61">
         <v>8</v>
       </c>
     </row>
@@ -17649,12 +16534,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U62">
+      <c r="T62">
         <v>9</v>
       </c>
     </row>
@@ -17728,12 +16608,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U63">
+      <c r="T63">
         <v>10</v>
       </c>
     </row>
@@ -17807,12 +16682,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U64">
+      <c r="T64">
         <v>11</v>
       </c>
     </row>
@@ -17886,12 +16756,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U65">
+      <c r="T65">
         <v>12</v>
       </c>
     </row>
@@ -17965,12 +16830,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U66">
+      <c r="T66">
         <v>13</v>
       </c>
     </row>
@@ -17981,7 +16841,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U86"/>
+  <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18085,11 +16945,6 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>HH_SIZE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
           <t>ID</t>
         </is>
       </c>
@@ -18164,12 +17019,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -18243,12 +17093,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U3">
+      <c r="T3">
         <v>2</v>
       </c>
     </row>
@@ -18322,12 +17167,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U4">
+      <c r="T4">
         <v>3</v>
       </c>
     </row>
@@ -18401,12 +17241,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U5">
+      <c r="T5">
         <v>4</v>
       </c>
     </row>
@@ -18463,12 +17298,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U6">
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
@@ -18525,12 +17355,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U7">
+      <c r="T7">
         <v>6</v>
       </c>
     </row>
@@ -18604,12 +17429,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U8">
+      <c r="T8">
         <v>7</v>
       </c>
     </row>
@@ -18683,12 +17503,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U9">
+      <c r="T9">
         <v>8</v>
       </c>
     </row>
@@ -18762,12 +17577,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U10">
+      <c r="T10">
         <v>9</v>
       </c>
     </row>
@@ -18841,12 +17651,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U11">
+      <c r="T11">
         <v>10</v>
       </c>
     </row>
@@ -18903,12 +17708,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U12">
+      <c r="T12">
         <v>11</v>
       </c>
     </row>
@@ -18965,12 +17765,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U13">
+      <c r="T13">
         <v>12</v>
       </c>
     </row>
@@ -19044,12 +17839,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U14">
+      <c r="T14">
         <v>13</v>
       </c>
     </row>
@@ -19123,12 +17913,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U15">
+      <c r="T15">
         <v>14</v>
       </c>
     </row>
@@ -19202,12 +17987,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U16">
+      <c r="T16">
         <v>15</v>
       </c>
     </row>
@@ -19281,12 +18061,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U17">
+      <c r="T17">
         <v>16</v>
       </c>
     </row>
@@ -19360,12 +18135,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U18">
+      <c r="T18">
         <v>17</v>
       </c>
     </row>
@@ -19439,12 +18209,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U19">
+      <c r="T19">
         <v>1</v>
       </c>
     </row>
@@ -19518,12 +18283,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U20">
+      <c r="T20">
         <v>2</v>
       </c>
     </row>
@@ -19597,12 +18357,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U21">
+      <c r="T21">
         <v>3</v>
       </c>
     </row>
@@ -19676,12 +18431,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U22">
+      <c r="T22">
         <v>4</v>
       </c>
     </row>
@@ -19738,12 +18488,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U23">
+      <c r="T23">
         <v>5</v>
       </c>
     </row>
@@ -19800,12 +18545,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U24">
+      <c r="T24">
         <v>6</v>
       </c>
     </row>
@@ -19879,12 +18619,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U25">
+      <c r="T25">
         <v>7</v>
       </c>
     </row>
@@ -19958,12 +18693,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U26">
+      <c r="T26">
         <v>8</v>
       </c>
     </row>
@@ -20037,12 +18767,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U27">
+      <c r="T27">
         <v>9</v>
       </c>
     </row>
@@ -20116,12 +18841,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U28">
+      <c r="T28">
         <v>10</v>
       </c>
     </row>
@@ -20178,12 +18898,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U29">
+      <c r="T29">
         <v>11</v>
       </c>
     </row>
@@ -20240,12 +18955,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U30">
+      <c r="T30">
         <v>12</v>
       </c>
     </row>
@@ -20319,12 +19029,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U31">
+      <c r="T31">
         <v>13</v>
       </c>
     </row>
@@ -20398,12 +19103,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U32">
+      <c r="T32">
         <v>14</v>
       </c>
     </row>
@@ -20477,12 +19177,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U33">
+      <c r="T33">
         <v>15</v>
       </c>
     </row>
@@ -20556,12 +19251,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U34">
+      <c r="T34">
         <v>16</v>
       </c>
     </row>
@@ -20635,12 +19325,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U35">
+      <c r="T35">
         <v>17</v>
       </c>
     </row>
@@ -20714,12 +19399,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U36">
+      <c r="T36">
         <v>1</v>
       </c>
     </row>
@@ -20793,12 +19473,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U37">
+      <c r="T37">
         <v>2</v>
       </c>
     </row>
@@ -20872,12 +19547,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U38">
+      <c r="T38">
         <v>3</v>
       </c>
     </row>
@@ -20951,12 +19621,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U39">
+      <c r="T39">
         <v>4</v>
       </c>
     </row>
@@ -21013,12 +19678,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U40">
+      <c r="T40">
         <v>5</v>
       </c>
     </row>
@@ -21075,12 +19735,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U41">
+      <c r="T41">
         <v>6</v>
       </c>
     </row>
@@ -21154,12 +19809,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U42">
+      <c r="T42">
         <v>7</v>
       </c>
     </row>
@@ -21233,12 +19883,7 @@
           <t>weak</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U43">
+      <c r="T43">
         <v>8</v>
       </c>
     </row>
@@ -21312,12 +19957,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U44">
+      <c r="T44">
         <v>9</v>
       </c>
     </row>
@@ -21391,12 +20031,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U45">
+      <c r="T45">
         <v>10</v>
       </c>
     </row>
@@ -21453,12 +20088,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U46">
+      <c r="T46">
         <v>11</v>
       </c>
     </row>
@@ -21515,12 +20145,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U47">
+      <c r="T47">
         <v>12</v>
       </c>
     </row>
@@ -21594,12 +20219,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U48">
+      <c r="T48">
         <v>13</v>
       </c>
     </row>
@@ -21673,12 +20293,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U49">
+      <c r="T49">
         <v>14</v>
       </c>
     </row>
@@ -21752,12 +20367,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U50">
+      <c r="T50">
         <v>15</v>
       </c>
     </row>
@@ -21831,12 +20441,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U51">
+      <c r="T51">
         <v>16</v>
       </c>
     </row>
@@ -21910,12 +20515,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U52">
+      <c r="T52">
         <v>17</v>
       </c>
     </row>
@@ -21989,12 +20589,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U53">
+      <c r="T53">
         <v>1</v>
       </c>
     </row>
@@ -22068,12 +20663,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U54">
+      <c r="T54">
         <v>2</v>
       </c>
     </row>
@@ -22147,12 +20737,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U55">
+      <c r="T55">
         <v>3</v>
       </c>
     </row>
@@ -22226,12 +20811,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U56">
+      <c r="T56">
         <v>4</v>
       </c>
     </row>
@@ -22288,12 +20868,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U57">
+      <c r="T57">
         <v>5</v>
       </c>
     </row>
@@ -22350,12 +20925,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U58">
+      <c r="T58">
         <v>6</v>
       </c>
     </row>
@@ -22429,12 +20999,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U59">
+      <c r="T59">
         <v>7</v>
       </c>
     </row>
@@ -22508,12 +21073,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U60">
+      <c r="T60">
         <v>8</v>
       </c>
     </row>
@@ -22587,12 +21147,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U61">
+      <c r="T61">
         <v>9</v>
       </c>
     </row>
@@ -22666,12 +21221,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U62">
+      <c r="T62">
         <v>10</v>
       </c>
     </row>
@@ -22728,12 +21278,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U63">
+      <c r="T63">
         <v>11</v>
       </c>
     </row>
@@ -22790,12 +21335,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U64">
+      <c r="T64">
         <v>12</v>
       </c>
     </row>
@@ -22869,12 +21409,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U65">
+      <c r="T65">
         <v>13</v>
       </c>
     </row>
@@ -22948,12 +21483,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U66">
+      <c r="T66">
         <v>14</v>
       </c>
     </row>
@@ -23027,12 +21557,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U67">
+      <c r="T67">
         <v>15</v>
       </c>
     </row>
@@ -23106,12 +21631,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U68">
+      <c r="T68">
         <v>16</v>
       </c>
     </row>
@@ -23185,12 +21705,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U69">
+      <c r="T69">
         <v>17</v>
       </c>
     </row>
@@ -23264,12 +21779,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U70">
+      <c r="T70">
         <v>1</v>
       </c>
     </row>
@@ -23343,12 +21853,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U71">
+      <c r="T71">
         <v>2</v>
       </c>
     </row>
@@ -23422,12 +21927,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U72">
+      <c r="T72">
         <v>3</v>
       </c>
     </row>
@@ -23501,12 +22001,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U73">
+      <c r="T73">
         <v>4</v>
       </c>
     </row>
@@ -23563,12 +22058,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U74">
+      <c r="T74">
         <v>5</v>
       </c>
     </row>
@@ -23625,12 +22115,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U75">
+      <c r="T75">
         <v>6</v>
       </c>
     </row>
@@ -23704,12 +22189,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U76">
+      <c r="T76">
         <v>7</v>
       </c>
     </row>
@@ -23783,12 +22263,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U77">
+      <c r="T77">
         <v>8</v>
       </c>
     </row>
@@ -23862,12 +22337,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U78">
+      <c r="T78">
         <v>9</v>
       </c>
     </row>
@@ -23941,12 +22411,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U79">
+      <c r="T79">
         <v>10</v>
       </c>
     </row>
@@ -24003,12 +22468,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U80">
+      <c r="T80">
         <v>11</v>
       </c>
     </row>
@@ -24065,12 +22525,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U81">
+      <c r="T81">
         <v>12</v>
       </c>
     </row>
@@ -24144,12 +22599,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U82">
+      <c r="T82">
         <v>13</v>
       </c>
     </row>
@@ -24223,12 +22673,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U83">
+      <c r="T83">
         <v>14</v>
       </c>
     </row>
@@ -24302,12 +22747,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U84">
+      <c r="T84">
         <v>15</v>
       </c>
     </row>
@@ -24381,12 +22821,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U85">
+      <c r="T85">
         <v>16</v>
       </c>
     </row>
@@ -24460,12 +22895,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U86">
+      <c r="T86">
         <v>17</v>
       </c>
     </row>
@@ -24476,7 +22906,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24580,11 +23010,6 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>HH_SIZE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
           <t>ID</t>
         </is>
       </c>
@@ -24659,12 +23084,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -24738,12 +23158,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U3">
+      <c r="T3">
         <v>2</v>
       </c>
     </row>
@@ -24817,12 +23232,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U4">
+      <c r="T4">
         <v>3</v>
       </c>
     </row>
@@ -24896,12 +23306,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U5">
+      <c r="T5">
         <v>4</v>
       </c>
     </row>
@@ -24975,12 +23380,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U6">
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
@@ -25054,12 +23454,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U7">
+      <c r="T7">
         <v>6</v>
       </c>
     </row>
@@ -25133,12 +23528,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U8">
+      <c r="T8">
         <v>7</v>
       </c>
     </row>
@@ -25212,12 +23602,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U9">
+      <c r="T9">
         <v>8</v>
       </c>
     </row>
@@ -25291,12 +23676,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U10">
+      <c r="T10">
         <v>9</v>
       </c>
     </row>
@@ -25370,12 +23750,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U11">
+      <c r="T11">
         <v>10</v>
       </c>
     </row>
@@ -25449,12 +23824,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U12">
+      <c r="T12">
         <v>11</v>
       </c>
     </row>
@@ -25528,12 +23898,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U13">
+      <c r="T13">
         <v>12</v>
       </c>
     </row>
@@ -25607,12 +23972,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U14">
+      <c r="T14">
         <v>13</v>
       </c>
     </row>
@@ -25686,12 +24046,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U15">
+      <c r="T15">
         <v>1</v>
       </c>
     </row>
@@ -25765,12 +24120,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U16">
+      <c r="T16">
         <v>2</v>
       </c>
     </row>
@@ -25844,12 +24194,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U17">
+      <c r="T17">
         <v>3</v>
       </c>
     </row>
@@ -25923,12 +24268,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U18">
+      <c r="T18">
         <v>4</v>
       </c>
     </row>
@@ -26002,12 +24342,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U19">
+      <c r="T19">
         <v>5</v>
       </c>
     </row>
@@ -26081,12 +24416,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U20">
+      <c r="T20">
         <v>6</v>
       </c>
     </row>
@@ -26160,12 +24490,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U21">
+      <c r="T21">
         <v>7</v>
       </c>
     </row>
@@ -26239,12 +24564,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U22">
+      <c r="T22">
         <v>8</v>
       </c>
     </row>
@@ -26318,12 +24638,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U23">
+      <c r="T23">
         <v>9</v>
       </c>
     </row>
@@ -26397,12 +24712,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U24">
+      <c r="T24">
         <v>10</v>
       </c>
     </row>
@@ -26476,12 +24786,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U25">
+      <c r="T25">
         <v>11</v>
       </c>
     </row>
@@ -26555,12 +24860,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U26">
+      <c r="T26">
         <v>12</v>
       </c>
     </row>
@@ -26634,12 +24934,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U27">
+      <c r="T27">
         <v>13</v>
       </c>
     </row>
@@ -26713,12 +25008,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U28">
+      <c r="T28">
         <v>1</v>
       </c>
     </row>
@@ -26792,12 +25082,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U29">
+      <c r="T29">
         <v>2</v>
       </c>
     </row>
@@ -26871,12 +25156,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U30">
+      <c r="T30">
         <v>3</v>
       </c>
     </row>
@@ -26950,12 +25230,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U31">
+      <c r="T31">
         <v>4</v>
       </c>
     </row>
@@ -27029,12 +25304,7 @@
           <t>unreliable</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U32">
+      <c r="T32">
         <v>5</v>
       </c>
     </row>
@@ -27108,12 +25378,7 @@
           <t>weak</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U33">
+      <c r="T33">
         <v>6</v>
       </c>
     </row>
@@ -27187,12 +25452,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U34">
+      <c r="T34">
         <v>7</v>
       </c>
     </row>
@@ -27266,12 +25526,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U35">
+      <c r="T35">
         <v>8</v>
       </c>
     </row>
@@ -27345,12 +25600,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U36">
+      <c r="T36">
         <v>9</v>
       </c>
     </row>
@@ -27424,12 +25674,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U37">
+      <c r="T37">
         <v>10</v>
       </c>
     </row>
@@ -27503,12 +25748,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U38">
+      <c r="T38">
         <v>11</v>
       </c>
     </row>
@@ -27582,12 +25822,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U39">
+      <c r="T39">
         <v>12</v>
       </c>
     </row>
@@ -27661,12 +25896,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U40">
+      <c r="T40">
         <v>13</v>
       </c>
     </row>
@@ -27740,12 +25970,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U41">
+      <c r="T41">
         <v>1</v>
       </c>
     </row>
@@ -27819,12 +26044,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U42">
+      <c r="T42">
         <v>2</v>
       </c>
     </row>
@@ -27898,12 +26118,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U43">
+      <c r="T43">
         <v>3</v>
       </c>
     </row>
@@ -27977,12 +26192,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U44">
+      <c r="T44">
         <v>4</v>
       </c>
     </row>
@@ -28056,12 +26266,7 @@
           <t>weak</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U45">
+      <c r="T45">
         <v>5</v>
       </c>
     </row>
@@ -28135,12 +26340,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U46">
+      <c r="T46">
         <v>6</v>
       </c>
     </row>
@@ -28214,12 +26414,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U47">
+      <c r="T47">
         <v>7</v>
       </c>
     </row>
@@ -28293,12 +26488,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U48">
+      <c r="T48">
         <v>8</v>
       </c>
     </row>
@@ -28372,12 +26562,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U49">
+      <c r="T49">
         <v>9</v>
       </c>
     </row>
@@ -28451,12 +26636,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U50">
+      <c r="T50">
         <v>10</v>
       </c>
     </row>
@@ -28530,12 +26710,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U51">
+      <c r="T51">
         <v>11</v>
       </c>
     </row>
@@ -28609,12 +26784,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U52">
+      <c r="T52">
         <v>12</v>
       </c>
     </row>
@@ -28688,12 +26858,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U53">
+      <c r="T53">
         <v>13</v>
       </c>
     </row>
@@ -28767,12 +26932,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U54">
+      <c r="T54">
         <v>1</v>
       </c>
     </row>
@@ -28846,12 +27006,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U55">
+      <c r="T55">
         <v>2</v>
       </c>
     </row>
@@ -28925,12 +27080,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U56">
+      <c r="T56">
         <v>3</v>
       </c>
     </row>
@@ -29004,12 +27154,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U57">
+      <c r="T57">
         <v>4</v>
       </c>
     </row>
@@ -29083,12 +27228,7 @@
           <t>unreliable</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U58">
+      <c r="T58">
         <v>5</v>
       </c>
     </row>
@@ -29162,12 +27302,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U59">
+      <c r="T59">
         <v>6</v>
       </c>
     </row>
@@ -29241,12 +27376,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U60">
+      <c r="T60">
         <v>7</v>
       </c>
     </row>
@@ -29320,12 +27450,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U61">
+      <c r="T61">
         <v>8</v>
       </c>
     </row>
@@ -29399,12 +27524,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U62">
+      <c r="T62">
         <v>9</v>
       </c>
     </row>
@@ -29478,12 +27598,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U63">
+      <c r="T63">
         <v>10</v>
       </c>
     </row>
@@ -29557,12 +27672,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U64">
+      <c r="T64">
         <v>11</v>
       </c>
     </row>
@@ -29636,12 +27746,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U65">
+      <c r="T65">
         <v>12</v>
       </c>
     </row>
@@ -29715,12 +27820,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>single-person</t>
-        </is>
-      </c>
-      <c r="U66">
+      <c r="T66">
         <v>13</v>
       </c>
     </row>
@@ -29731,7 +27831,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29835,11 +27935,6 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>HH_SIZE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
           <t>ID</t>
         </is>
       </c>
@@ -29914,12 +28009,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U2">
+      <c r="T2">
         <v>1</v>
       </c>
     </row>
@@ -29993,12 +28083,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U3">
+      <c r="T3">
         <v>2</v>
       </c>
     </row>
@@ -30072,12 +28157,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U4">
+      <c r="T4">
         <v>3</v>
       </c>
     </row>
@@ -30151,12 +28231,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U5">
+      <c r="T5">
         <v>4</v>
       </c>
     </row>
@@ -30213,12 +28288,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U6">
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
@@ -30292,12 +28362,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U7">
+      <c r="T7">
         <v>6</v>
       </c>
     </row>
@@ -30371,12 +28436,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U8">
+      <c r="T8">
         <v>7</v>
       </c>
     </row>
@@ -30450,12 +28510,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U9">
+      <c r="T9">
         <v>8</v>
       </c>
     </row>
@@ -30529,12 +28584,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U10">
+      <c r="T10">
         <v>9</v>
       </c>
     </row>
@@ -30591,12 +28641,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U11">
+      <c r="T11">
         <v>10</v>
       </c>
     </row>
@@ -30653,12 +28698,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U12">
+      <c r="T12">
         <v>11</v>
       </c>
     </row>
@@ -30732,12 +28772,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U13">
+      <c r="T13">
         <v>12</v>
       </c>
     </row>
@@ -30811,12 +28846,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U14">
+      <c r="T14">
         <v>13</v>
       </c>
     </row>
@@ -30890,12 +28920,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U15">
+      <c r="T15">
         <v>14</v>
       </c>
     </row>
@@ -30969,12 +28994,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U16">
+      <c r="T16">
         <v>15</v>
       </c>
     </row>
@@ -31048,12 +29068,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U17">
+      <c r="T17">
         <v>16</v>
       </c>
     </row>
@@ -31127,12 +29142,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U18">
+      <c r="T18">
         <v>1</v>
       </c>
     </row>
@@ -31206,12 +29216,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U19">
+      <c r="T19">
         <v>2</v>
       </c>
     </row>
@@ -31285,12 +29290,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U20">
+      <c r="T20">
         <v>3</v>
       </c>
     </row>
@@ -31364,12 +29364,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U21">
+      <c r="T21">
         <v>4</v>
       </c>
     </row>
@@ -31426,12 +29421,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U22">
+      <c r="T22">
         <v>5</v>
       </c>
     </row>
@@ -31505,12 +29495,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U23">
+      <c r="T23">
         <v>6</v>
       </c>
     </row>
@@ -31584,12 +29569,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U24">
+      <c r="T24">
         <v>7</v>
       </c>
     </row>
@@ -31663,12 +29643,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U25">
+      <c r="T25">
         <v>8</v>
       </c>
     </row>
@@ -31742,12 +29717,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U26">
+      <c r="T26">
         <v>9</v>
       </c>
     </row>
@@ -31804,12 +29774,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U27">
+      <c r="T27">
         <v>10</v>
       </c>
     </row>
@@ -31866,12 +29831,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U28">
+      <c r="T28">
         <v>11</v>
       </c>
     </row>
@@ -31945,12 +29905,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U29">
+      <c r="T29">
         <v>12</v>
       </c>
     </row>
@@ -32024,12 +29979,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U30">
+      <c r="T30">
         <v>13</v>
       </c>
     </row>
@@ -32103,12 +30053,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U31">
+      <c r="T31">
         <v>14</v>
       </c>
     </row>
@@ -32182,12 +30127,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U32">
+      <c r="T32">
         <v>15</v>
       </c>
     </row>
@@ -32261,12 +30201,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U33">
+      <c r="T33">
         <v>16</v>
       </c>
     </row>
@@ -32340,12 +30275,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U34">
+      <c r="T34">
         <v>1</v>
       </c>
     </row>
@@ -32419,12 +30349,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U35">
+      <c r="T35">
         <v>2</v>
       </c>
     </row>
@@ -32498,12 +30423,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U36">
+      <c r="T36">
         <v>3</v>
       </c>
     </row>
@@ -32577,12 +30497,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U37">
+      <c r="T37">
         <v>4</v>
       </c>
     </row>
@@ -32639,12 +30554,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U38">
+      <c r="T38">
         <v>5</v>
       </c>
     </row>
@@ -32718,12 +30628,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U39">
+      <c r="T39">
         <v>6</v>
       </c>
     </row>
@@ -32797,12 +30702,7 @@
           <t>weak</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U40">
+      <c r="T40">
         <v>7</v>
       </c>
     </row>
@@ -32876,12 +30776,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U41">
+      <c r="T41">
         <v>8</v>
       </c>
     </row>
@@ -32955,12 +30850,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U42">
+      <c r="T42">
         <v>9</v>
       </c>
     </row>
@@ -33017,12 +30907,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U43">
+      <c r="T43">
         <v>10</v>
       </c>
     </row>
@@ -33079,12 +30964,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U44">
+      <c r="T44">
         <v>11</v>
       </c>
     </row>
@@ -33158,12 +31038,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U45">
+      <c r="T45">
         <v>12</v>
       </c>
     </row>
@@ -33237,12 +31112,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U46">
+      <c r="T46">
         <v>13</v>
       </c>
     </row>
@@ -33316,12 +31186,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U47">
+      <c r="T47">
         <v>14</v>
       </c>
     </row>
@@ -33395,12 +31260,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U48">
+      <c r="T48">
         <v>15</v>
       </c>
     </row>
@@ -33474,12 +31334,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U49">
+      <c r="T49">
         <v>16</v>
       </c>
     </row>
@@ -33553,12 +31408,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U50">
+      <c r="T50">
         <v>1</v>
       </c>
     </row>
@@ -33632,12 +31482,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U51">
+      <c r="T51">
         <v>2</v>
       </c>
     </row>
@@ -33711,12 +31556,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U52">
+      <c r="T52">
         <v>3</v>
       </c>
     </row>
@@ -33790,12 +31630,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U53">
+      <c r="T53">
         <v>4</v>
       </c>
     </row>
@@ -33852,12 +31687,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U54">
+      <c r="T54">
         <v>5</v>
       </c>
     </row>
@@ -33931,12 +31761,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U55">
+      <c r="T55">
         <v>6</v>
       </c>
     </row>
@@ -34010,12 +31835,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U56">
+      <c r="T56">
         <v>7</v>
       </c>
     </row>
@@ -34089,12 +31909,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U57">
+      <c r="T57">
         <v>8</v>
       </c>
     </row>
@@ -34168,12 +31983,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U58">
+      <c r="T58">
         <v>9</v>
       </c>
     </row>
@@ -34230,12 +32040,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U59">
+      <c r="T59">
         <v>10</v>
       </c>
     </row>
@@ -34292,12 +32097,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U60">
+      <c r="T60">
         <v>11</v>
       </c>
     </row>
@@ -34371,12 +32171,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U61">
+      <c r="T61">
         <v>12</v>
       </c>
     </row>
@@ -34450,12 +32245,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U62">
+      <c r="T62">
         <v>13</v>
       </c>
     </row>
@@ -34529,12 +32319,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U63">
+      <c r="T63">
         <v>14</v>
       </c>
     </row>
@@ -34608,12 +32393,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U64">
+      <c r="T64">
         <v>15</v>
       </c>
     </row>
@@ -34687,12 +32467,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U65">
+      <c r="T65">
         <v>16</v>
       </c>
     </row>
@@ -34766,12 +32541,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U66">
+      <c r="T66">
         <v>1</v>
       </c>
     </row>
@@ -34845,12 +32615,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U67">
+      <c r="T67">
         <v>2</v>
       </c>
     </row>
@@ -34924,12 +32689,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U68">
+      <c r="T68">
         <v>3</v>
       </c>
     </row>
@@ -35003,12 +32763,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U69">
+      <c r="T69">
         <v>4</v>
       </c>
     </row>
@@ -35065,12 +32820,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U70">
+      <c r="T70">
         <v>5</v>
       </c>
     </row>
@@ -35144,12 +32894,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U71">
+      <c r="T71">
         <v>6</v>
       </c>
     </row>
@@ -35223,12 +32968,7 @@
           <t>fair</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U72">
+      <c r="T72">
         <v>7</v>
       </c>
     </row>
@@ -35302,12 +33042,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U73">
+      <c r="T73">
         <v>8</v>
       </c>
     </row>
@@ -35381,12 +33116,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U74">
+      <c r="T74">
         <v>9</v>
       </c>
     </row>
@@ -35443,12 +33173,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U75">
+      <c r="T75">
         <v>10</v>
       </c>
     </row>
@@ -35505,12 +33230,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U76">
+      <c r="T76">
         <v>11</v>
       </c>
     </row>
@@ -35584,12 +33304,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U77">
+      <c r="T77">
         <v>12</v>
       </c>
     </row>
@@ -35663,12 +33378,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U78">
+      <c r="T78">
         <v>13</v>
       </c>
     </row>
@@ -35742,12 +33452,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U79">
+      <c r="T79">
         <v>14</v>
       </c>
     </row>
@@ -35821,12 +33526,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U80">
+      <c r="T80">
         <v>15</v>
       </c>
     </row>
@@ -35900,12 +33600,7 @@
           <t>good</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>multi-person</t>
-        </is>
-      </c>
-      <c r="U81">
+      <c r="T81">
         <v>16</v>
       </c>
     </row>
